--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vegfc-Flt4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vegfc-Flt4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.425865000000001</v>
+        <v>2.454345666666666</v>
       </c>
       <c r="H2">
-        <v>13.277595</v>
+        <v>7.363036999999999</v>
       </c>
       <c r="I2">
-        <v>0.4619841037548157</v>
+        <v>0.2857469401257222</v>
       </c>
       <c r="J2">
-        <v>0.4696223785602887</v>
+        <v>0.3027613480760606</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.05291066666667</v>
+        <v>12.384602</v>
       </c>
       <c r="N2">
-        <v>48.158732</v>
+        <v>37.153806</v>
       </c>
       <c r="O2">
-        <v>0.972923027125661</v>
+        <v>0.9505912801254437</v>
       </c>
       <c r="P2">
-        <v>0.9767177893325292</v>
+        <v>0.9566996763338882</v>
       </c>
       <c r="Q2">
-        <v>71.04801546772667</v>
+        <v>30.39609425209133</v>
       </c>
       <c r="R2">
-        <v>639.4321392095401</v>
+        <v>273.564848268822</v>
       </c>
       <c r="S2">
-        <v>0.4494749727090708</v>
+        <v>0.2716285496060387</v>
       </c>
       <c r="T2">
-        <v>0.4586885314084893</v>
+        <v>0.2896516837107788</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.425865000000001</v>
+        <v>2.454345666666666</v>
       </c>
       <c r="H3">
-        <v>13.277595</v>
+        <v>7.363036999999999</v>
       </c>
       <c r="I3">
-        <v>0.4619841037548157</v>
+        <v>0.2857469401257222</v>
       </c>
       <c r="J3">
-        <v>0.4696223785602887</v>
+        <v>0.3027613480760606</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.436179</v>
       </c>
       <c r="O3">
-        <v>0.00881187222804462</v>
+        <v>0.01115977065643923</v>
       </c>
       <c r="P3">
-        <v>0.008846241812040924</v>
+        <v>0.01123148212927739</v>
       </c>
       <c r="Q3">
-        <v>0.6434897899450001</v>
+        <v>0.3568446795136666</v>
       </c>
       <c r="R3">
-        <v>5.791408109505</v>
+        <v>3.211602115623</v>
       </c>
       <c r="S3">
-        <v>0.004070944893675145</v>
+        <v>0.003188870317582332</v>
       </c>
       <c r="T3">
-        <v>0.004154393121090137</v>
+        <v>0.003400458670352205</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.425865000000001</v>
+        <v>2.454345666666666</v>
       </c>
       <c r="H4">
-        <v>13.277595</v>
+        <v>7.363036999999999</v>
       </c>
       <c r="I4">
-        <v>0.4619841037548157</v>
+        <v>0.2857469401257222</v>
       </c>
       <c r="J4">
-        <v>0.4696223785602887</v>
+        <v>0.3027613480760606</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.08871000000000001</v>
+        <v>0.153231</v>
       </c>
       <c r="N4">
-        <v>0.26613</v>
+        <v>0.459693</v>
       </c>
       <c r="O4">
-        <v>0.005376470568389388</v>
+        <v>0.01176138340536917</v>
       </c>
       <c r="P4">
-        <v>0.005397440806270938</v>
+        <v>0.01183696077631869</v>
       </c>
       <c r="Q4">
-        <v>0.3926184841500001</v>
+        <v>0.3760818408489999</v>
       </c>
       <c r="R4">
-        <v>3.533566357350001</v>
+        <v>3.384736567640999</v>
       </c>
       <c r="S4">
-        <v>0.002483843936901516</v>
+        <v>0.003360779319729687</v>
       </c>
       <c r="T4">
-        <v>0.00253475898957932</v>
+        <v>0.003583774201761699</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.425865000000001</v>
+        <v>2.454345666666666</v>
       </c>
       <c r="H5">
-        <v>13.277595</v>
+        <v>7.363036999999999</v>
       </c>
       <c r="I5">
-        <v>0.4619841037548157</v>
+        <v>0.2857469401257222</v>
       </c>
       <c r="J5">
-        <v>0.4696223785602887</v>
+        <v>0.3027613480760606</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1923145</v>
+        <v>0.249552</v>
       </c>
       <c r="N5">
-        <v>0.384629</v>
+        <v>0.499104</v>
       </c>
       <c r="O5">
-        <v>0.01165565606047256</v>
+        <v>0.01915458850739529</v>
       </c>
       <c r="P5">
-        <v>0.007800744973791697</v>
+        <v>0.01285178254031226</v>
       </c>
       <c r="Q5">
-        <v>0.8511580145425002</v>
+        <v>0.6124868698079999</v>
       </c>
       <c r="R5">
-        <v>5.106948087255001</v>
+        <v>3.674921218848</v>
       </c>
       <c r="S5">
-        <v>0.005384727818771803</v>
+        <v>0.005473365055355527</v>
       </c>
       <c r="T5">
-        <v>0.003663404409134274</v>
+        <v>0.003891023007085318</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.425865000000001</v>
+        <v>2.454345666666666</v>
       </c>
       <c r="H6">
-        <v>13.277595</v>
+        <v>7.363036999999999</v>
       </c>
       <c r="I6">
-        <v>0.4619841037548157</v>
+        <v>0.2857469401257222</v>
       </c>
       <c r="J6">
-        <v>0.4696223785602887</v>
+        <v>0.3027613480760606</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.02034366666666667</v>
+        <v>0.09553633333333333</v>
       </c>
       <c r="N6">
-        <v>0.06103099999999999</v>
+        <v>0.286609</v>
       </c>
       <c r="O6">
-        <v>0.001232974017432731</v>
+        <v>0.0073329773053526</v>
       </c>
       <c r="P6">
-        <v>0.001237783075367383</v>
+        <v>0.007380098220203317</v>
       </c>
       <c r="Q6">
-        <v>0.09003832227166668</v>
+        <v>0.2344791857258889</v>
       </c>
       <c r="R6">
-        <v>0.8103449004450001</v>
+        <v>2.110312671533</v>
       </c>
       <c r="S6">
-        <v>0.0005696143963966348</v>
+        <v>0.002095375827015869</v>
       </c>
       <c r="T6">
-        <v>0.0005812906319956993</v>
+        <v>0.002234408486082492</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.686805</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H7">
         <v>14.060415</v>
       </c>
       <c r="I7">
-        <v>0.4892217470254037</v>
+        <v>0.5456607868665887</v>
       </c>
       <c r="J7">
-        <v>0.4973103589802793</v>
+        <v>0.5781514068052169</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.05291066666667</v>
+        <v>12.384602</v>
       </c>
       <c r="N7">
-        <v>48.158732</v>
+        <v>37.153806</v>
       </c>
       <c r="O7">
-        <v>0.972923027125661</v>
+        <v>0.9505912801254437</v>
       </c>
       <c r="P7">
-        <v>0.9767177893325292</v>
+        <v>0.9566996763338882</v>
       </c>
       <c r="Q7">
-        <v>75.23686197708666</v>
+        <v>58.04421457661001</v>
       </c>
       <c r="R7">
-        <v>677.1317577937799</v>
+        <v>522.3979311894901</v>
       </c>
       <c r="S7">
-        <v>0.4759751030516601</v>
+        <v>0.5187003859017675</v>
       </c>
       <c r="T7">
-        <v>0.4857318744353848</v>
+        <v>0.5531172637625331</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.686805</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H8">
         <v>14.060415</v>
       </c>
       <c r="I8">
-        <v>0.4892217470254037</v>
+        <v>0.5456607868665887</v>
       </c>
       <c r="J8">
-        <v>0.4973103589802793</v>
+        <v>0.5781514068052169</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,22 +936,22 @@
         <v>0.436179</v>
       </c>
       <c r="O8">
-        <v>0.00881187222804462</v>
+        <v>0.01115977065643923</v>
       </c>
       <c r="P8">
-        <v>0.008846241812040924</v>
+        <v>0.01123148212927739</v>
       </c>
       <c r="Q8">
-        <v>0.681428639365</v>
+        <v>0.6814286393650001</v>
       </c>
       <c r="R8">
-        <v>6.132857754284999</v>
+        <v>6.132857754285</v>
       </c>
       <c r="S8">
-        <v>0.004310959525968626</v>
+        <v>0.006089449237643299</v>
       </c>
       <c r="T8">
-        <v>0.004399327691172428</v>
+        <v>0.006493497193549374</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.686805</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H9">
         <v>14.060415</v>
       </c>
       <c r="I9">
-        <v>0.4892217470254037</v>
+        <v>0.5456607868665887</v>
       </c>
       <c r="J9">
-        <v>0.4973103589802793</v>
+        <v>0.5781514068052169</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.08871000000000001</v>
+        <v>0.153231</v>
       </c>
       <c r="N9">
-        <v>0.26613</v>
+        <v>0.459693</v>
       </c>
       <c r="O9">
-        <v>0.005376470568389388</v>
+        <v>0.01176138340536917</v>
       </c>
       <c r="P9">
-        <v>0.005397440806270938</v>
+        <v>0.01183696077631869</v>
       </c>
       <c r="Q9">
-        <v>0.41576647155</v>
+        <v>0.718163816955</v>
       </c>
       <c r="R9">
-        <v>3.74189824395</v>
+        <v>6.463474352595</v>
       </c>
       <c r="S9">
-        <v>0.002630286324298122</v>
+        <v>0.00641772572361338</v>
       </c>
       <c r="T9">
-        <v>0.002684203224941408</v>
+        <v>0.006843555525126823</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.686805</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H10">
         <v>14.060415</v>
       </c>
       <c r="I10">
-        <v>0.4892217470254037</v>
+        <v>0.5456607868665887</v>
       </c>
       <c r="J10">
-        <v>0.4973103589802793</v>
+        <v>0.5781514068052169</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1923145</v>
+        <v>0.249552</v>
       </c>
       <c r="N10">
-        <v>0.384629</v>
+        <v>0.499104</v>
       </c>
       <c r="O10">
-        <v>0.01165565606047256</v>
+        <v>0.01915458850739529</v>
       </c>
       <c r="P10">
-        <v>0.007800744973791697</v>
+        <v>0.01285178254031226</v>
       </c>
       <c r="Q10">
-        <v>0.9013405601725</v>
+        <v>1.16960156136</v>
       </c>
       <c r="R10">
-        <v>5.408043361034999</v>
+        <v>7.01760936816</v>
       </c>
       <c r="S10">
-        <v>0.005702200420631621</v>
+        <v>0.01045190783705103</v>
       </c>
       <c r="T10">
-        <v>0.003879391283229958</v>
+        <v>0.007430276155636257</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.686805</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H11">
         <v>14.060415</v>
       </c>
       <c r="I11">
-        <v>0.4892217470254037</v>
+        <v>0.5456607868665887</v>
       </c>
       <c r="J11">
-        <v>0.4973103589802793</v>
+        <v>0.5781514068052169</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.02034366666666667</v>
+        <v>0.09553633333333333</v>
       </c>
       <c r="N11">
-        <v>0.06103099999999999</v>
+        <v>0.286609</v>
       </c>
       <c r="O11">
-        <v>0.001232974017432731</v>
+        <v>0.0073329773053526</v>
       </c>
       <c r="P11">
-        <v>0.001237783075367383</v>
+        <v>0.007380098220203317</v>
       </c>
       <c r="Q11">
-        <v>0.09534679865166666</v>
+        <v>0.4477601647483334</v>
       </c>
       <c r="R11">
-        <v>0.8581211878649999</v>
+        <v>4.029841482735001</v>
       </c>
       <c r="S11">
-        <v>0.0006031977028453713</v>
+        <v>0.004001318166513537</v>
       </c>
       <c r="T11">
-        <v>0.0006155623455506671</v>
+        <v>0.004266814168371226</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.467454</v>
+        <v>1.4480775</v>
       </c>
       <c r="H12">
-        <v>0.9349080000000001</v>
+        <v>2.896155</v>
       </c>
       <c r="I12">
-        <v>0.04879414921978045</v>
+        <v>0.1685922730076891</v>
       </c>
       <c r="J12">
-        <v>0.03306726245943203</v>
+        <v>0.1190872451187225</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.05291066666667</v>
+        <v>12.384602</v>
       </c>
       <c r="N12">
-        <v>48.158732</v>
+        <v>37.153806</v>
       </c>
       <c r="O12">
-        <v>0.972923027125661</v>
+        <v>0.9505912801254437</v>
       </c>
       <c r="P12">
-        <v>0.9767177893325292</v>
+        <v>0.9566996763338882</v>
       </c>
       <c r="Q12">
-        <v>7.503997302776</v>
+        <v>17.933863502655</v>
       </c>
       <c r="R12">
-        <v>45.02398381665601</v>
+        <v>107.60318101593</v>
       </c>
       <c r="S12">
-        <v>0.04747295136493001</v>
+        <v>0.1602623446176375</v>
       </c>
       <c r="T12">
-        <v>0.03229738348865498</v>
+        <v>0.1139307288605762</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.467454</v>
+        <v>1.4480775</v>
       </c>
       <c r="H13">
-        <v>0.9349080000000001</v>
+        <v>2.896155</v>
       </c>
       <c r="I13">
-        <v>0.04879414921978045</v>
+        <v>0.1685922730076891</v>
       </c>
       <c r="J13">
-        <v>0.03306726245943203</v>
+        <v>0.1190872451187225</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.436179</v>
       </c>
       <c r="O13">
-        <v>0.00881187222804462</v>
+        <v>0.01115977065643923</v>
       </c>
       <c r="P13">
-        <v>0.008846241812040924</v>
+        <v>0.01123148212927739</v>
       </c>
       <c r="Q13">
-        <v>0.06796453942200001</v>
+        <v>0.2105403319575</v>
       </c>
       <c r="R13">
-        <v>0.407787236532</v>
+        <v>1.263241991745</v>
       </c>
       <c r="S13">
-        <v>0.0004299678084008484</v>
+        <v>0.001881451101213601</v>
       </c>
       <c r="T13">
-        <v>0.0002925209997783588</v>
+        <v>0.001337526265375807</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.467454</v>
+        <v>1.4480775</v>
       </c>
       <c r="H14">
-        <v>0.9349080000000001</v>
+        <v>2.896155</v>
       </c>
       <c r="I14">
-        <v>0.04879414921978045</v>
+        <v>0.1685922730076891</v>
       </c>
       <c r="J14">
-        <v>0.03306726245943203</v>
+        <v>0.1190872451187225</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.08871000000000001</v>
+        <v>0.153231</v>
       </c>
       <c r="N14">
-        <v>0.26613</v>
+        <v>0.459693</v>
       </c>
       <c r="O14">
-        <v>0.005376470568389388</v>
+        <v>0.01176138340536917</v>
       </c>
       <c r="P14">
-        <v>0.005397440806270938</v>
+        <v>0.01183696077631869</v>
       </c>
       <c r="Q14">
-        <v>0.04146784434000001</v>
+        <v>0.2218903634025</v>
       </c>
       <c r="R14">
-        <v>0.2488070660400001</v>
+        <v>1.331342180415</v>
       </c>
       <c r="S14">
-        <v>0.0002623403071897496</v>
+        <v>0.001982878362026104</v>
       </c>
       <c r="T14">
-        <v>0.0001784785917502095</v>
+        <v>0.001409631049430168</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.467454</v>
+        <v>1.4480775</v>
       </c>
       <c r="H15">
-        <v>0.9349080000000001</v>
+        <v>2.896155</v>
       </c>
       <c r="I15">
-        <v>0.04879414921978045</v>
+        <v>0.1685922730076891</v>
       </c>
       <c r="J15">
-        <v>0.03306726245943203</v>
+        <v>0.1190872451187225</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1923145</v>
+        <v>0.249552</v>
       </c>
       <c r="N15">
-        <v>0.384629</v>
+        <v>0.499104</v>
       </c>
       <c r="O15">
-        <v>0.01165565606047256</v>
+        <v>0.01915458850739529</v>
       </c>
       <c r="P15">
-        <v>0.007800744973791697</v>
+        <v>0.01285178254031226</v>
       </c>
       <c r="Q15">
-        <v>0.08989818228300001</v>
+        <v>0.36137063628</v>
       </c>
       <c r="R15">
-        <v>0.359592729132</v>
+        <v>1.44548254512</v>
       </c>
       <c r="S15">
-        <v>0.0005687278210691365</v>
+        <v>0.003229315614988731</v>
       </c>
       <c r="T15">
-        <v>0.0002579492814274653</v>
+        <v>0.001530483377590684</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.467454</v>
+        <v>1.4480775</v>
       </c>
       <c r="H16">
-        <v>0.9349080000000001</v>
+        <v>2.896155</v>
       </c>
       <c r="I16">
-        <v>0.04879414921978045</v>
+        <v>0.1685922730076891</v>
       </c>
       <c r="J16">
-        <v>0.03306726245943203</v>
+        <v>0.1190872451187225</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.02034366666666667</v>
+        <v>0.09553633333333333</v>
       </c>
       <c r="N16">
-        <v>0.06103099999999999</v>
+        <v>0.286609</v>
       </c>
       <c r="O16">
-        <v>0.001232974017432731</v>
+        <v>0.0073329773053526</v>
       </c>
       <c r="P16">
-        <v>0.001237783075367383</v>
+        <v>0.007380098220203317</v>
       </c>
       <c r="Q16">
-        <v>0.009509728358</v>
+        <v>0.1383440147325</v>
       </c>
       <c r="R16">
-        <v>0.057058370148</v>
+        <v>0.8300640883949999</v>
       </c>
       <c r="S16">
-        <v>6.016191819072486E-05</v>
+        <v>0.001236283311823194</v>
       </c>
       <c r="T16">
-        <v>4.093009782101618E-05</v>
+        <v>0.0008788755657496</v>
       </c>
     </row>
   </sheetData>
